--- a/Neuu Stat.xlsx
+++ b/Neuu Stat.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="173">
   <si>
     <t>tribhuvan university</t>
   </si>
@@ -343,12 +344,387 @@
   <si>
     <t xml:space="preserve"> =E71/E70*100</t>
   </si>
+  <si>
+    <t xml:space="preserve">marks </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70-80</t>
+  </si>
+  <si>
+    <t>no.of students(f)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode = </t>
+  </si>
+  <si>
+    <t>`70</t>
+  </si>
+  <si>
+    <t>q1`</t>
+  </si>
+  <si>
+    <t>weight in kg</t>
+  </si>
+  <si>
+    <t>No. of people</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>60-70</t>
+  </si>
+  <si>
+    <t>70-80</t>
+  </si>
+  <si>
+    <t>80-90</t>
+  </si>
+  <si>
+    <t>90-100</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>Mode = \</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>p(x)</t>
+  </si>
+  <si>
+    <r>
+      <t>mean(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">λ) = </t>
+    </r>
+  </si>
+  <si>
+    <t>NP(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp on </t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education </t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>100-110</t>
+  </si>
+  <si>
+    <t>from figure</t>
+  </si>
+  <si>
+    <t>74 approx</t>
+  </si>
+  <si>
+    <t>Compute five number summary and construct box whisker plot</t>
+  </si>
+  <si>
+    <t>solution:=</t>
+  </si>
+  <si>
+    <t>Calculation fot five number summary</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MIN(A176:F177)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =QUARTILE(A176:F177,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =QUARTILE(A176:F177,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =QUARTILE(A176:F177,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MAX(A176:F177)</t>
+  </si>
+  <si>
+    <t>For box whisker</t>
+  </si>
+  <si>
+    <t>From given data estimate the value of weight when age of person is 40.</t>
+  </si>
+  <si>
+    <t>also, compute i)correlation coefficient</t>
+  </si>
+  <si>
+    <t>ii)coefficient of Multiple determination</t>
+  </si>
+  <si>
+    <t>iii) standard error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight </t>
+  </si>
+  <si>
+    <t>solution:- calculation of various  values</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>fittedregression equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when X= </t>
+  </si>
+  <si>
+    <t>Estimated weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y =  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y = </t>
+  </si>
+  <si>
+    <t>a+bX</t>
+  </si>
+  <si>
+    <t>I) correlation coeff=</t>
+  </si>
+  <si>
+    <t>compute expected frequency</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <r>
+      <t>Mean (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ)</t>
+    </r>
+  </si>
+  <si>
+    <t>N=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +753,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,7 +770,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -394,16 +778,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,9 +858,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11858254560285228"/>
-          <c:y val="4.5409093090218858E-2"/>
-          <c:w val="0.82693110729579855"/>
-          <c:h val="0.76026534147208547"/>
+          <c:y val="4.5409093090218886E-2"/>
+          <c:w val="0.82693110729579888"/>
+          <c:h val="0.76026534147208569"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -496,25 +930,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60997632"/>
-        <c:axId val="60999168"/>
+        <c:axId val="71680768"/>
+        <c:axId val="71682304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60997632"/>
+        <c:axId val="71680768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60999168"/>
+        <c:crossAx val="71682304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60999168"/>
+        <c:axId val="71682304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +956,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60997632"/>
+        <c:crossAx val="71680768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -536,7 +970,7 @@
           <c:x val="0.41418533209664582"/>
           <c:y val="0.90597623423873164"/>
           <c:w val="0.1668214521365157"/>
-          <c:h val="8.4598425196850388E-2"/>
+          <c:h val="8.4598425196850568E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -544,10 +978,757 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 10-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no.of students(f)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 20-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no.of students(f)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 30-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no.of students(f)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 40-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no.of students(f)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 50-60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no.of students(f)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 60-70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no.of students(f)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 70-80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no.of students(f)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="71752320"/>
+        <c:axId val="71565696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71752320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71565696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71565696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71752320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> chart for given data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9086517733224017E-2"/>
+                  <c:y val="0.11318514693859992"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$150:$A$155</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Education </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Drinks</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$150:$B$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$120:$B$125</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50-60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60-70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70-80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80-90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100-110</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$120:$C$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="2"/>
+        <c:axId val="71616768"/>
+        <c:axId val="71626752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71616768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71626752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71626752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71616768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$186</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$186</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.3125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$187</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$188</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$189</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$189</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$190</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$190</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="75104640"/>
+        <c:axId val="75106176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75104640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75106176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75106176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="75104640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -578,6 +1759,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -672,6 +1973,149 @@
         </a:fillRef>
         <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33125</cdr:x>
+      <cdr:y>0.14098</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45</cdr:x>
+      <cdr:y>0.40328</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipH="1" flipV="1">
+          <a:off x="1514474" y="409575"/>
+          <a:ext cx="542926" cy="762001"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33333</cdr:x>
+      <cdr:y>0.1377</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45625</cdr:x>
+      <cdr:y>0.58361</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Straight Connector 6"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipV="1">
+          <a:off x="1524000" y="400049"/>
+          <a:ext cx="561976" cy="1295401"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37899</cdr:x>
+      <cdr:y>0.29536</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37934</cdr:x>
+      <cdr:y>0.84945</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Straight Connector 8"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="928688" y="1662113"/>
+          <a:ext cx="1609726" cy="1589"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
           <a:schemeClr val="tx1"/>
@@ -974,744 +2418,1365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J75" sqref="J74:J75"/>
+    <sheetView topLeftCell="A197" zoomScalePageLayoutView="69" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204:A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2018</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <f>BINOMDIST(B8,E$4,C$5,0)</f>
         <v>3.125E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f>C$4*C8</f>
         <v>3.125</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <f t="shared" ref="C9:C13" si="0">BINOMDIST(B9,E$4,C$5,0)</f>
         <v>0.15625</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f t="shared" ref="D9:D13" si="1">C$4*C9</f>
         <v>15.625</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>0.31250000000000006</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>31.250000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>0.31250000000000006</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>31.250000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12">
+      <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>0.15625</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>15.625</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13">
+      <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>3.125</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <f>SUM(C8:C13)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <f>SUM(D8:D13)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <f>D19/SQRT(D17)</f>
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <f>(D18-D20)/B25</f>
         <v>-2</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <f>ABS(B26)</f>
         <v>2</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <f>NORMSINV(1-B28/2)</f>
         <v>1.959963984540054</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>50</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>75</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>170</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>150</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <f>D34+B35</f>
         <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>200</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>225</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <f t="shared" ref="D36:D40" si="2">D35+B36</f>
         <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>60</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>300</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>50</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>375</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <f t="shared" si="2"/>
         <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>40</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>450</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>30</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>525</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="1">
+      <c r="B41" s="5">
         <f>SUM(B34:B40)</f>
         <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <f>B41/2</f>
         <v>300</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="B65">
+      <c r="B65" s="2">
         <v>154</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>108</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="B66">
+      <c r="B66" s="2">
         <v>153</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>107</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <f>AVERAGE(B65:B74)</f>
         <v>152</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="B67">
+      <c r="B67" s="2">
         <v>151</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>105</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <f>STDEV(B65:B74)</f>
         <v>2.7888667551135851</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="B68">
+      <c r="B68" s="2">
         <v>152</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>105</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <f>E67/E66*100</f>
         <v>1.834780759943148</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="B69">
+      <c r="B69" s="2">
         <v>155</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>106</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F69" s="1"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="B70">
+      <c r="B70" s="2">
         <v>157</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>103</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <f>AVERAGE(C65:C74)</f>
         <v>104</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="B71">
+      <c r="B71" s="2">
         <v>151</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>103</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <f>STDEV(C65:C74)</f>
         <v>2.6246692913372702</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="B72">
+      <c r="B72" s="2">
         <v>149</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>102</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <f>E71/E70*100</f>
         <v>2.5237204724396829</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="B73">
+      <c r="B73" s="2">
         <v>150</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="B74">
+      <c r="B74" s="2">
         <v>148</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>4</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="B78">
+      <c r="B78" s="2">
         <v>1</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="B79">
+      <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="B80">
+      <c r="B80" s="2">
         <v>3</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81">
+      <c r="B81" s="2">
         <v>4</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>6</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82">
+      <c r="B82" s="2">
         <v>5</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>8</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <f>CORREL(B78:B87,C78:C87)</f>
         <v>0.95164259187732891</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83">
+      <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>10</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84">
+      <c r="B84" s="2">
         <v>7</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85">
+      <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86">
+      <c r="B86" s="2">
         <v>9</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87">
+      <c r="B87" s="2">
         <v>10</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="12:12">
-      <c r="L117" t="s">
+    <row r="91" spans="2:6">
+      <c r="B91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="D101" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="L117" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="B119" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="B120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="B121" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="B122" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C122" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="B123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="B124" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="B125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="B137" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="B138" s="2">
+        <v>0</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45</v>
+      </c>
+      <c r="D138" s="2">
+        <f>B138*C138</f>
+        <v>0</v>
+      </c>
+      <c r="E138" s="2">
+        <f>POISSON(B138,C$146,0)</f>
+        <v>0.28938421793905128</v>
+      </c>
+      <c r="F138" s="2">
+        <f>ROUND(E138*$C$144,0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="B139" s="2">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2">
+        <v>20</v>
+      </c>
+      <c r="D139" s="2">
+        <f t="shared" ref="D139:D143" si="3">B139*C139</f>
+        <v>20</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" ref="E139:E143" si="4">POISSON(B139,C$146,0)</f>
+        <v>0.35883643024442358</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" ref="F139:F143" si="5">ROUND(E139*$C$144,0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="B140" s="2">
+        <v>2</v>
+      </c>
+      <c r="C140" s="2">
+        <v>15</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E140" s="2">
+        <f t="shared" si="4"/>
+        <v>0.22247858675154261</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="B141" s="2">
+        <v>3</v>
+      </c>
+      <c r="C141" s="2">
+        <v>10</v>
+      </c>
+      <c r="D141" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" si="4"/>
+        <v>9.1957815857304281E-2</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="B142" s="2">
+        <v>4</v>
+      </c>
+      <c r="C142" s="2">
+        <v>6</v>
+      </c>
+      <c r="D142" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8506922915764326E-2</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="B143" s="2">
+        <v>5</v>
+      </c>
+      <c r="C143" s="2">
+        <v>4</v>
+      </c>
+      <c r="D143" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E143" s="2">
+        <f t="shared" si="4"/>
+        <v>7.0697168831095527E-3</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="C144" s="5">
+        <f>SUM(C138:C143)</f>
+        <v>100</v>
+      </c>
+      <c r="D144" s="2">
+        <f>SUM(D138:D143)</f>
+        <v>124</v>
+      </c>
+      <c r="F144" s="2">
+        <f>SUM(F138:F143)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="B146" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146" s="2">
+        <f>D144/C144</f>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B150" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B151" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B152" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B153" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B154" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B155" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2">
+        <v>10</v>
+      </c>
+      <c r="B176" s="2">
+        <v>20</v>
+      </c>
+      <c r="C176" s="2">
+        <v>24</v>
+      </c>
+      <c r="D176" s="2">
+        <v>11</v>
+      </c>
+      <c r="E176" s="2">
+        <v>33</v>
+      </c>
+      <c r="F176" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2">
+        <v>22</v>
+      </c>
+      <c r="B177" s="2">
+        <v>18</v>
+      </c>
+      <c r="C177" s="2">
+        <v>33</v>
+      </c>
+      <c r="D177" s="2">
+        <v>41</v>
+      </c>
+      <c r="E177" s="2">
+        <v>20</v>
+      </c>
+      <c r="F177" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="18">
+      <c r="A180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B180" s="2">
+        <f>MIN(A176:F177)</f>
+        <v>10</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="18">
+      <c r="A181" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B181" s="2">
+        <f>QUARTILE(A176:F177,1)</f>
+        <v>18.75</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="18">
+      <c r="A182" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B182" s="2">
+        <f>QUARTILE(A176:F177,2)</f>
+        <v>21</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="18">
+      <c r="A183" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B183" s="2">
+        <f>QUARTILE(A176:F177,3)</f>
+        <v>33</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="18">
+      <c r="A184" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B184" s="2">
+        <f>MAX(A176:F177)</f>
+        <v>45</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="18">
+      <c r="A186" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B186" s="2">
+        <f>QUARTILE(A181:F182,1)</f>
+        <v>19.3125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="18">
+      <c r="A187" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B187" s="2">
+        <f>MIN(A183:F184)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="18">
+      <c r="A188" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B188" s="2">
+        <f>QUARTILE(A182:F183,2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="18">
+      <c r="A189" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B189" s="2">
+        <f>MAX(A181:F182)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="18">
+      <c r="A190" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B190" s="2">
+        <f>QUARTILE(A183:F184,3)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="8"/>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>10</v>
+      </c>
+      <c r="B208" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>20</v>
+      </c>
+      <c r="B209" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>30</v>
+      </c>
+      <c r="B210" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45</v>
+      </c>
+      <c r="B211" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>50</v>
+      </c>
+      <c r="B212" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1720,4 +3785,408 @@
   <pageSetup scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.89778664485015713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.8060208596713021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.74136114622840277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="10">
+        <v>8.5478345907297602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>910.80357142857133</v>
+      </c>
+      <c r="D12" s="10">
+        <v>910.80357142857133</v>
+      </c>
+      <c r="E12" s="10">
+        <v>12.46558044806517</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3.8620880291432909E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>219.19642857142861</v>
+      </c>
+      <c r="D13" s="10">
+        <v>73.065476190476204</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1130</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15.044642857142854</v>
+      </c>
+      <c r="C17">
+        <v>8.7923764302272875</v>
+      </c>
+      <c r="D17">
+        <v>1.7111008584005702</v>
+      </c>
+      <c r="E17">
+        <v>0.18558716377881937</v>
+      </c>
+      <c r="F17">
+        <v>-12.936623024408473</v>
+      </c>
+      <c r="G17">
+        <v>43.025908738694177</v>
+      </c>
+      <c r="H17">
+        <v>-12.936623024408473</v>
+      </c>
+      <c r="I17">
+        <v>43.025908738694177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.90178571428571441</v>
+      </c>
+      <c r="C18">
+        <v>0.25541541126745892</v>
+      </c>
+      <c r="D18">
+        <v>3.5306628907423567</v>
+      </c>
+      <c r="E18">
+        <v>3.8620880291432874E-2</v>
+      </c>
+      <c r="F18">
+        <v>8.8939882486427022E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.7146315460850019</v>
+      </c>
+      <c r="H18">
+        <v>8.8939882486427022E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.7146315460850019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23">
+        <f>B17+B18*B22</f>
+        <v>51.116071428571431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24">
+        <f>B4</f>
+        <v>0.89778664485015713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25">
+        <f>B5</f>
+        <v>0.8060208596713021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26">
+        <f>B7</f>
+        <v>8.5478345907297602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <f>B32*A32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C37" si="0">B33*A33</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="1">
+        <f>SUM(B32:B37)</f>
+        <v>210</v>
+      </c>
+      <c r="C38" s="1">
+        <f>SUM(C32:C37)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40">
+        <f>C38/B38</f>
+        <v>1.0714285714285714</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41">
+        <f>B38</f>
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>